--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2776748.514606628</v>
+        <v>2774860.933090225</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>298.6217232731162</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880556</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>197.529488614794</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>289.9265508718969</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.0186500846252</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643338</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571613</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295494</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991917</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829617719</v>
       </c>
       <c r="X13" t="n">
-        <v>62.56378259042211</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467002</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.6292254718846</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.77945773664927</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.75862782376885</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.3158222056511</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>183.4653217847135</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>1.042680388417239</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>78.220415413552</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571477</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523557</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>529.9159669521664</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>529.9159669521664</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,7 +4419,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>528.604248231895</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>528.604248231895</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>528.604248231895</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>528.604248231895</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>528.604248231895</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.604248231895</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>906.9212171249367</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>906.9212171249367</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>521.1329645266924</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>514.1874637774889</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>500.2640597160798</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>210.965822962985</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.965822962985</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066836</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999331</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168884</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326647</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047578</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>257.1154545468207</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>257.1154545468207</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629044</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5042,13 +5042,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045605</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,43 +5498,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387938</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028581</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028581</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028581</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028581</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028581</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>241.9805482336708</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609661</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550792</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336708</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336708</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>241.9805482336708</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030896</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565537</v>
+        <v>326.357112307682</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430011</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430011</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818951</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652487</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030896</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982976</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,19 +7075,19 @@
         <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7166,37 +7166,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119861</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.50021372615237</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.1743415069733</v>
       </c>
       <c r="X13" t="n">
-        <v>163.145872798615</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518771</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.08042991715254</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>50.63978772762271</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>72.20572458002394</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338542</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>23.93099889297677</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>103.0576765518775</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>92.36953600123789</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.49015632542707</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.298961066497191e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934483</v>
       </c>
       <c r="K2" t="n">
         <v>630574.3128851684</v>
@@ -26344,16 +26344,16 @@
         <v>636307.3716448202</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028459</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086674</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106731</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,25 +26485,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196585</v>
+        <v>-202152.4534196587</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.425794886</v>
+        <v>387815.4257948857</v>
       </c>
       <c r="D6" t="n">
         <v>387815.4257948859</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903471</v>
+        <v>-33324.38654500687</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578611</v>
+        <v>491835.649931889</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578613</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578613</v>
+        <v>491835.649931889</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.109057861</v>
+        <v>491835.649931889</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652684</v>
+        <v>315412.430739296</v>
       </c>
       <c r="K6" t="n">
-        <v>449444.2689510323</v>
+        <v>449425.7752130983</v>
       </c>
       <c r="L6" t="n">
-        <v>483655.9641957368</v>
+        <v>483655.9641957367</v>
       </c>
       <c r="M6" t="n">
         <v>359197.8557627666</v>
@@ -26558,10 +26558,10 @@
         <v>493998.8709966036</v>
       </c>
       <c r="O6" t="n">
-        <v>493998.8709966037</v>
+        <v>493998.8709966036</v>
       </c>
       <c r="P6" t="n">
-        <v>449836.2656937576</v>
+        <v>449836.2656937581</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108343</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>83.30864679914555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293574</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50561684329023</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>33.9962218924602</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.8133300973121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770472</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359953</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866297</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463631</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>747.6947913160968</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081138</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>390.9245907766187</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
